--- a/docs/stereo_cam_BOM_updated_20240708.xlsx
+++ b/docs/stereo_cam_BOM_updated_20240708.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucsdcloud-my.sharepoint.com/personal/adavey_ucsd_edu/Documents/stereo_repo/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{A268ED73-A091-4228-8008-2EBC7802FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{751CE635-B1ED-4088-A57A-BC2CC65D0E34}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="13_ncr:1_{A268ED73-A091-4228-8008-2EBC7802FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C584A16-70FD-42C2-A7B4-5046E3B6096F}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
   <si>
     <t xml:space="preserve">TOTAL
 </t>
@@ -200,9 +200,6 @@
     <t>25 ft. Cable</t>
   </si>
   <si>
-    <t>Optional</t>
-  </si>
-  <si>
     <t>SanDisk 256GB Ultra Fit USB</t>
   </si>
   <si>
@@ -221,9 +218,6 @@
     <t>https://www.edmundoptics.com/p/6mm-uc-series-fixed-focal-length-lens/2967?gad_source=1&amp;gclid=CjwKCAjwnK60BhA9EiwAmpHZww1kE_8QRr3ZF9Cem7TDlDcs5RBBSc2Tp2DKtDTfl87OBfot4_JFPRoCpZIQAvD_BwE</t>
   </si>
   <si>
-    <t>Stereo Cam - Bill of Materials (TBD)</t>
-  </si>
-  <si>
     <t>https://voltaicsystems.com/v75/</t>
   </si>
   <si>
@@ -278,9 +272,6 @@
     <t>https://www.pishop.us/product/raspberry-pi-5-8gb/?src=raspberrypi</t>
   </si>
   <si>
-    <t>buy all accessories here</t>
-  </si>
-  <si>
     <t>Female/Female Jumper Cables</t>
   </si>
   <si>
@@ -309,6 +300,90 @@
   </si>
   <si>
     <t>Pishop</t>
+  </si>
+  <si>
+    <t>Camera ribbons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.pishop.us/product/camera-cable-for-raspberry-pi-5/ </t>
+  </si>
+  <si>
+    <t>buy with active cooler</t>
+  </si>
+  <si>
+    <t>Edmund Optics</t>
+  </si>
+  <si>
+    <t>Stereo Cam - Bill of Materials</t>
+  </si>
+  <si>
+    <t>Glass plates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•https://www.uqgoptics.com/product/schott-af45-plate/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schott AF45 Plate GAF-5051 </t>
+  </si>
+  <si>
+    <t>(50x50x1.1 mm)</t>
+  </si>
+  <si>
+    <t>(50x50x1.6 mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Float Glass Plate FGP-5016 </t>
+  </si>
+  <si>
+    <t>Borosilicate Plate BPW-5051</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (50x50x1.1 mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR VIS Both Sides – Precision WAP-5001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (50x50x1.6 mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•https://www.uqgoptics.com/product/float-glass-plate-2/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•https://www.uqgoptics.com/product/borosilicate-plate/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•https://www.uqgoptics.com/product/ar-vis-both-sides-precision/ </t>
+  </si>
+  <si>
+    <t>Global shutter camera</t>
+  </si>
+  <si>
+    <t>https://www.pishop.us/product/raspberry-pi-global-shutter-camera/</t>
+  </si>
+  <si>
+    <t>3M 5200 Fast Cure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/3M-5200FC-Marine-Adhesive-Sealant/dp/B003E1ULRE/ref=sr_1_3_pp?dib=eyJ2IjoiMSJ9.pqFbzQgIltKzxr3SPeV64qWl9GiTEAMJnwlT_ooQUO6hy5i28oQtjyjjGw3d1Pqg0WGE5w6IrxISR-5TRvrlYm-xKggiet0fsYQSQqfUcxBgvM7cSGw9nsFZgpcmAbCjQcGm1GmuZPrNbxbz4Zz0jtYixkLIcKn6gWWqAiocs3HkselxK8Qf6zfQx0JqGsLVVMVrZu4NDiFA8f781o1N-_qIOfYT0YMjukHQ4lmqhuo._C_sIlGZlMqGxpAsHdO1Y5f4bNEFU5w8uJfSlkq-lXY&amp;dib_tag=se&amp;keywords=3m+5200&amp;qid=1720554171&amp;sr=8-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB to USBC </t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/4473</t>
+  </si>
+  <si>
+    <t>1 ft</t>
+  </si>
+  <si>
+    <t>UQG Optics</t>
+  </si>
+  <si>
+    <t>2 standard, 2 hinged</t>
+  </si>
+  <si>
+    <t>Prowire</t>
   </si>
 </sst>
 </file>
@@ -534,7 +609,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,6 +709,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC8FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,7 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1064,9 +1157,6 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1155,12 +1245,6 @@
     <xf numFmtId="8" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1176,27 +1260,55 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1233,69 +1345,59 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1306,8 +1408,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC8FD"/>
       <color rgb="FF46BDC6"/>
-      <color rgb="FFFFC8FD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1527,10 +1629,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z978"/>
+  <dimension ref="A1:Z980"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -1547,45 +1649,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="140" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
+      <c r="A1" s="147" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:26" ht="13.5" x14ac:dyDescent="0.6">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="139" t="s">
-        <v>59</v>
+      <c r="A3" s="146" t="s">
+        <v>58</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="135"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
       <c r="G3" s="49"/>
-      <c r="I3" s="131" t="s">
+      <c r="I3" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="132"/>
+      <c r="J3" s="139"/>
       <c r="K3" s="45"/>
       <c r="L3" s="45"/>
       <c r="M3" s="45"/>
@@ -1604,21 +1706,21 @@
       <c r="Z3" s="45"/>
     </row>
     <row r="4" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="139"/>
+      <c r="A4" s="146"/>
       <c r="B4" s="60">
-        <f>SUM(B6:B53)</f>
-        <v>4068.0399999999991</v>
-      </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="138"/>
+        <f>SUM(B6:B62)</f>
+        <v>4253.9699999999993</v>
+      </c>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="49"/>
       <c r="I4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="32" customHeight="1" x14ac:dyDescent="0.6">
@@ -1649,362 +1751,411 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="45.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="113">
+      <c r="A6" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="112">
         <v>70.92</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="94">
+        <v>2</v>
+      </c>
+      <c r="E6" s="98"/>
+      <c r="F6" s="97" t="s">
         <v>67</v>
-      </c>
-      <c r="D6" s="95">
-        <v>1</v>
-      </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="98" t="s">
-        <v>69</v>
       </c>
       <c r="G6" s="47"/>
       <c r="I6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="125" t="s">
-        <v>79</v>
+      <c r="J6" s="121" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="28.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="113">
+      <c r="B7" s="112">
         <v>16.66</v>
       </c>
-      <c r="C7" s="122" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="96">
+      <c r="C7" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="95">
+        <v>4</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="98"/>
+      <c r="G7" s="47"/>
+      <c r="I7" s="127" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="130" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="112">
+        <v>80</v>
+      </c>
+      <c r="C8" s="154" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="95">
         <v>1</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="47"/>
-      <c r="I7" s="146" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="149" t="s">
+      <c r="E8" s="97"/>
+      <c r="F8" s="98" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="110" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="113">
-        <v>80</v>
-      </c>
-      <c r="C8" s="150" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="96">
-        <v>1</v>
-      </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99" t="s">
-        <v>81</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
+      <c r="I8" s="156" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="163" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="31" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="136" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="113">
+        <v>236</v>
+      </c>
+      <c r="C9" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="114">
-        <v>236</v>
-      </c>
-      <c r="C9" s="127" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="97">
+      <c r="D9" s="96">
         <v>2</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="99"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="49"/>
       <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="I9" s="165" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="25.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="162"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="128" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="99"/>
+      <c r="A10" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="113">
+        <v>2.35</v>
+      </c>
+      <c r="C10" s="155" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="96">
+        <v>2</v>
+      </c>
+      <c r="E10" s="86"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="49"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="162"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="99"/>
+      <c r="A11" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="113">
+        <v>50</v>
+      </c>
+      <c r="C11" s="161" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="96">
+        <v>2</v>
+      </c>
+      <c r="E11" s="86"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="49"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:26" ht="31.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="110"/>
-      <c r="B12" s="113"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="112"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="49"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="110" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="113">
+      <c r="A13" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="112">
         <v>3500</v>
       </c>
-      <c r="C13" s="124" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="96">
-        <v>0</v>
-      </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
+      <c r="C13" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="95">
+        <v>1</v>
+      </c>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="49"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="110"/>
-      <c r="B14" s="113"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="48"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
       <c r="I14" s="43"/>
     </row>
-    <row r="15" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="143" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="114">
+    <row r="15" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="113">
         <v>42.7</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="97">
-        <v>1</v>
-      </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="100" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="D15" s="96">
+        <v>2</v>
+      </c>
+      <c r="E15" s="96"/>
+      <c r="F15" s="99" t="s">
+        <v>85</v>
       </c>
       <c r="G15" s="49"/>
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
     </row>
-    <row r="16" spans="1:26" ht="47" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="118" t="s">
+    <row r="16" spans="1:26" ht="56.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="113"/>
+      <c r="C16" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="121">
+      <c r="D16" s="118">
         <v>1</v>
       </c>
-      <c r="E16" s="119"/>
-      <c r="F16" s="144" t="s">
-        <v>89</v>
+      <c r="E16" s="116"/>
+      <c r="F16" s="125" t="s">
+        <v>86</v>
       </c>
       <c r="G16" s="49"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
     </row>
     <row r="17" spans="1:9" ht="39.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="113">
+      <c r="B17" s="112">
         <v>79</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="96">
+        <v>61</v>
+      </c>
+      <c r="D17" s="95">
         <v>1</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="52"/>
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="110" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="129" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="96">
+      <c r="A18" s="109" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="112">
+        <v>6.7</v>
+      </c>
+      <c r="C18" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="95">
         <v>3</v>
       </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="49"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="110" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="113"/>
+      <c r="A19" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="112">
+        <v>7.03</v>
+      </c>
       <c r="C19" s="123" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="95">
+        <v>69</v>
+      </c>
+      <c r="D19" s="94">
         <v>3</v>
       </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="99"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="49"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="111" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="95">
-        <v>3</v>
-      </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="99"/>
+      <c r="A20" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="112">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="C20" s="166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="94">
+        <v>2</v>
+      </c>
+      <c r="E20" s="96"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="52"/>
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
     </row>
     <row r="21" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="111" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="113">
+      <c r="A21" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="112">
         <v>1.95</v>
       </c>
-      <c r="C21" s="148" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="95" t="s">
+      <c r="C21" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="100"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="52"/>
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
     </row>
     <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="110" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="113">
+      <c r="A22" s="109" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="112">
         <v>1.95</v>
       </c>
-      <c r="C22" s="147" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="96" t="s">
+      <c r="C22" s="128" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="110"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
+      <c r="A23" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="112">
+        <v>3.95</v>
+      </c>
+      <c r="C23" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="95">
+        <v>2</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="97"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" s="70" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="110"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
       <c r="G24" s="52"/>
       <c r="I24" s="69"/>
     </row>
     <row r="25" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="110"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="49"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
     </row>
     <row r="26" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="110"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
       <c r="G26" s="70"/>
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
     </row>
     <row r="27" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="110"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
+      <c r="A27" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="112">
+        <v>13.67</v>
+      </c>
+      <c r="C27" s="162" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="95">
+        <v>2</v>
+      </c>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
       <c r="H27" s="43"/>
       <c r="I27" s="43"/>
     </row>
     <row r="28" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="154"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="159"/>
+      <c r="A28" s="132"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="134"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="151"/>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
     </row>
@@ -2098,7 +2249,7 @@
       <c r="D43" s="53"/>
       <c r="E43" s="39"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="151"/>
+      <c r="G43" s="131"/>
       <c r="H43" s="43"/>
       <c r="I43" s="43"/>
     </row>
@@ -2109,19 +2260,18 @@
       <c r="D44" s="53"/>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="152"/>
       <c r="H44" s="43"/>
       <c r="I44" s="43"/>
     </row>
-    <row r="45" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="1">
-      <c r="A45" s="163" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
+    <row r="45" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="1">
+      <c r="A45" s="152" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
       <c r="H45" s="43"/>
       <c r="I45" s="43"/>
     </row>
@@ -2147,134 +2297,85 @@
       <c r="H46" s="43"/>
       <c r="I46" s="43"/>
     </row>
-    <row r="47" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A47" s="112"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="98"/>
+    <row r="47" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="159" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="112">
+        <v>23.75</v>
+      </c>
+      <c r="C47" s="164" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="95">
+        <v>4</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="97"/>
     </row>
     <row r="48" spans="1:9" ht="36.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="117"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="153"/>
-    </row>
-    <row r="49" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="1">
-      <c r="A49" s="130" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-    </row>
-    <row r="50" spans="1:7" ht="21" x14ac:dyDescent="0.6">
-      <c r="A50" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="66" t="s">
+      <c r="A48" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="112">
+        <v>13.75</v>
+      </c>
+      <c r="C48" s="164" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="95">
         <v>4</v>
       </c>
-      <c r="C50" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="68" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="135" x14ac:dyDescent="0.6">
-      <c r="A51" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="113">
-        <v>13.88</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G51" s="98"/>
-    </row>
-    <row r="52" spans="1:7" ht="135" x14ac:dyDescent="0.6">
-      <c r="A52" s="110" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="113">
-        <v>12.99</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" s="98"/>
-    </row>
-    <row r="53" spans="1:7" ht="135" x14ac:dyDescent="0.6">
-      <c r="A53" s="110" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="115">
-        <v>11.99</v>
-      </c>
-      <c r="C53" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="98"/>
-    </row>
+      <c r="E48" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="97"/>
+    </row>
+    <row r="49" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="112">
+        <v>10.63</v>
+      </c>
+      <c r="C49" s="164" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="95">
+        <v>0</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="97"/>
+    </row>
+    <row r="50" spans="1:7" ht="44.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="160" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="112">
+        <v>36.25</v>
+      </c>
+      <c r="C50" s="164" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="94">
+        <v>0</v>
+      </c>
+      <c r="E50" s="158" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="96"/>
+    </row>
+    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.6"/>
+    <row r="52" spans="1:7" ht="13" x14ac:dyDescent="0.6"/>
+    <row r="53" spans="1:7" ht="13" x14ac:dyDescent="0.6"/>
     <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.6">
-      <c r="A54" s="55"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
       <c r="G54" s="57"/>
     </row>
     <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.6">
-      <c r="A55" s="55"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
       <c r="G55" s="57"/>
     </row>
     <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.6">
@@ -2284,7 +2385,6 @@
       <c r="D56" s="55"/>
       <c r="E56" s="57"/>
       <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
     </row>
     <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.6">
       <c r="A57" s="55"/>
@@ -2293,52 +2393,102 @@
       <c r="D57" s="55"/>
       <c r="E57" s="57"/>
       <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-    </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.6">
-      <c r="A58" s="55"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-    </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.6">
-      <c r="A59" s="55"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-    </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.6">
-      <c r="A60" s="55"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-    </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.6">
-      <c r="A61" s="55"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-    </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.6">
-      <c r="A62" s="55"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
+    </row>
+    <row r="58" spans="1:7" ht="21" x14ac:dyDescent="1">
+      <c r="A58" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="137"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="137"/>
+    </row>
+    <row r="59" spans="1:7" ht="21" x14ac:dyDescent="0.6">
+      <c r="A59" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="135" x14ac:dyDescent="0.6">
+      <c r="A60" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="112">
+        <v>13.88</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D60" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="97"/>
+    </row>
+    <row r="61" spans="1:7" ht="135" x14ac:dyDescent="0.6">
+      <c r="A61" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="112">
+        <v>12.99</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" s="97"/>
+    </row>
+    <row r="62" spans="1:7" ht="135" x14ac:dyDescent="0.6">
+      <c r="A62" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="114">
+        <v>11.99</v>
+      </c>
+      <c r="C62" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="97"/>
     </row>
     <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.6">
       <c r="A63" s="55"/>
@@ -2769,14 +2919,18 @@
     <row r="111" spans="1:7" ht="13" x14ac:dyDescent="0.6">
       <c r="A111" s="55"/>
       <c r="B111" s="56"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="58"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="55"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="57"/>
     </row>
     <row r="112" spans="1:7" ht="13" x14ac:dyDescent="0.6">
       <c r="A112" s="55"/>
       <c r="B112" s="56"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="58"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="55"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="57"/>
     </row>
     <row r="113" spans="1:4" ht="13" x14ac:dyDescent="0.6">
       <c r="A113" s="55"/>
@@ -7974,9 +8128,21 @@
       <c r="C978" s="58"/>
       <c r="D978" s="58"/>
     </row>
+    <row r="979" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A979" s="55"/>
+      <c r="B979" s="56"/>
+      <c r="C979" s="58"/>
+      <c r="D979" s="58"/>
+    </row>
+    <row r="980" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A980" s="55"/>
+      <c r="B980" s="56"/>
+      <c r="C980" s="58"/>
+      <c r="D980" s="58"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A58:F58"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C3:F4"/>
     <mergeCell ref="A3:A4"/>
@@ -7988,9 +8154,9 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C51" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C52" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C53" r:id="rId3" display="https://www.amazon.com/XLX-Male-Female-Female-Female-Assortment-Stainless/dp/B07ZTB21YZ/ref=pd_di_sccai_5?pd_rd_w=uYFcx&amp;pf_rd_p=c9443270-b914-4430-a90b-72e3e7e784e0&amp;pf_rd_r=DDZKKXCFFPMKJTDJ4TVR&amp;pd_rd_r=35923862-b85f-46f5-8265-a9184be50288&amp;pd_rd_wg=PGenc&amp;pd_rd_i=B07ZTB21YZ&amp;psc=1" xr:uid="{F6A07AC4-28C3-3642-A2ED-921C4432D35F}"/>
+    <hyperlink ref="C60" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C61" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C62" r:id="rId3" display="https://www.amazon.com/XLX-Male-Female-Female-Female-Assortment-Stainless/dp/B07ZTB21YZ/ref=pd_di_sccai_5?pd_rd_w=uYFcx&amp;pf_rd_p=c9443270-b914-4430-a90b-72e3e7e784e0&amp;pf_rd_r=DDZKKXCFFPMKJTDJ4TVR&amp;pd_rd_r=35923862-b85f-46f5-8265-a9184be50288&amp;pd_rd_wg=PGenc&amp;pd_rd_i=B07ZTB21YZ&amp;psc=1" xr:uid="{F6A07AC4-28C3-3642-A2ED-921C4432D35F}"/>
     <hyperlink ref="C16" r:id="rId4" xr:uid="{82DD85E5-4107-074D-956C-1B1A6970E1B2}"/>
     <hyperlink ref="C6" r:id="rId5" location="ZH-100802-37" xr:uid="{CA27B291-E9F9-4258-BAA1-2F6186B4F144}"/>
     <hyperlink ref="C7" r:id="rId6" location="ZX-1008K-01" xr:uid="{38125201-0679-428D-8185-FCDCB1A19B1C}"/>
@@ -7998,9 +8164,18 @@
     <hyperlink ref="C18" r:id="rId8" xr:uid="{32227522-2625-46F3-9E3B-81AD5E2475E9}"/>
     <hyperlink ref="C22" r:id="rId9" xr:uid="{80AE0758-46AE-4C0A-B191-4AFBB4907E17}"/>
     <hyperlink ref="C21" r:id="rId10" xr:uid="{089572DE-AFC4-4244-8533-7EFDCEC80B3F}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{49CF1AC1-1065-4D94-883E-ACB4B568694A}"/>
+    <hyperlink ref="C8" r:id="rId12" xr:uid="{87FD5066-9E1F-43EB-9B5B-3018C0C18348}"/>
+    <hyperlink ref="C10" r:id="rId13" xr:uid="{878B1A8C-4A71-47FD-9AC2-7CED629AD05E}"/>
+    <hyperlink ref="C47" r:id="rId14" display="https://www.uqgoptics.com/product/schott-af45-plate/" xr:uid="{70F1985A-5A22-449C-A42F-955683CA3EEC}"/>
+    <hyperlink ref="C48" r:id="rId15" display="https://www.uqgoptics.com/product/float-glass-plate-2/" xr:uid="{6A8A509F-3437-44F8-B0B4-B263714B34A9}"/>
+    <hyperlink ref="C49" r:id="rId16" display="https://www.uqgoptics.com/product/borosilicate-plate/" xr:uid="{2EF475A0-387C-4193-A2C8-B4E63886FB3D}"/>
+    <hyperlink ref="C50" r:id="rId17" display="https://www.uqgoptics.com/product/ar-vis-both-sides-precision/" xr:uid="{E4590A17-7FBE-4D12-AAF7-3D6404A5309E}"/>
+    <hyperlink ref="C27" r:id="rId18" display="https://www.amazon.com/3M-5200FC-Marine-Adhesive-Sealant/dp/B003E1ULRE/ref=sr_1_3_pp?dib=eyJ2IjoiMSJ9.pqFbzQgIltKzxr3SPeV64qWl9GiTEAMJnwlT_ooQUO6hy5i28oQtjyjjGw3d1Pqg0WGE5w6IrxISR-5TRvrlYm-xKggiet0fsYQSQqfUcxBgvM7cSGw9nsFZgpcmAbCjQcGm1GmuZPrNbxbz4Zz0jtYixkLIcKn6gWWqAiocs3HkselxK8Qf6zfQx0JqGsLVVMVrZu4NDiFA8f781o1N-_qIOfYT0YMjukHQ4lmqhuo._C_sIlGZlMqGxpAsHdO1Y5f4bNEFU5w8uJfSlkq-lXY&amp;dib_tag=se&amp;keywords=3m+5200&amp;qid=1720554171&amp;sr=8-3 " xr:uid="{BD179972-3B3D-4CA7-B870-4C009F6E89BD}"/>
+    <hyperlink ref="C19" r:id="rId19" display="https://www.digikey.com/en/products/detail/mallory-sonalert-products-inc./FL1M-8SW-1-G12V/9957974?utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax%20Shopping_Product_Medium%20ROAS%20Categories&amp;utm_term=&amp;utm_content=&amp;utm_id=go_cmp-20223376311_adg-_ad-__dev-c_ext-_prd-9957974_sig-CjwKCAiAivGuBhBEEiwAWiFmYXNGZsIz0DUU0BG6Sm9elK52-E_9WnpghfTJyfWdIFq8CPj1NSH0xxoCwicQAvD_BwE&amp;gad_source=1&amp;gclid=CjwKCAiAivGuBhBEEiwAWiFmYXNGZsIz0DUU0BG6Sm9elK52-E_9WnpghfTJyfWdIFq8CPj1NSH0xxoCwicQAvD_BwE" xr:uid="{774748F2-179A-4812-8037-C30F32C060A1}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="41" orientation="portrait" r:id="rId11"/>
+  <pageSetup scale="41" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -8008,8 +8183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE59608B-F576-6645-8D67-3659100A0718}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -8026,61 +8201,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" x14ac:dyDescent="0.7">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="21" x14ac:dyDescent="1">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="153" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="6"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="91"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:9" ht="18.5" x14ac:dyDescent="0.9">
-      <c r="A4" s="142"/>
+      <c r="A4" s="153"/>
       <c r="B4" s="1">
         <f>SUM(B6:B30)</f>
         <v>353.32000000000005</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="138"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="6"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="92"/>
+      <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:9" ht="21" x14ac:dyDescent="1">
       <c r="A5" s="2" t="s">
@@ -8102,10 +8277,10 @@
         <v>8</v>
       </c>
       <c r="G5" s="15"/>
-      <c r="H5" s="90" t="s">
+      <c r="H5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="93"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="81" t="s">
@@ -8114,14 +8289,14 @@
       <c r="B6" s="72">
         <v>27.99</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="85">
         <v>1</v>
       </c>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
       <c r="G6" s="17"/>
       <c r="H6" s="42"/>
     </row>
@@ -8135,11 +8310,11 @@
       <c r="C7" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="103">
+      <c r="D7" s="102">
         <v>1</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="105"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="15"/>
       <c r="H7" s="42"/>
     </row>
@@ -8153,11 +8328,11 @@
       <c r="C8" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="106">
+      <c r="D8" s="105">
         <v>1</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
       <c r="G8" s="17"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -8172,11 +8347,11 @@
       <c r="C9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="103">
+      <c r="D9" s="102">
         <v>1</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="105"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="17"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -8191,13 +8366,13 @@
       <c r="C10" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="85">
         <v>1</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="102"/>
+      <c r="F10" s="101"/>
       <c r="G10" s="17"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -8212,11 +8387,11 @@
       <c r="C11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105" t="s">
+      <c r="E11" s="103"/>
+      <c r="F11" s="104" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="17"/>
@@ -8233,11 +8408,11 @@
       <c r="C12" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105" t="s">
+      <c r="E12" s="103"/>
+      <c r="F12" s="104" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="17"/>
@@ -8254,13 +8429,13 @@
       <c r="C13" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="85">
         <v>1</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="102"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="17"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -8275,13 +8450,13 @@
       <c r="C14" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="103">
+      <c r="D14" s="102">
         <v>1</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="102"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -8465,12 +8640,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8691,15 +8863,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BD112D-483C-4DC3-AC82-49A1F55493B5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1119FABC-E957-4B38-B87F-FE3412B9A645}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8724,10 +8900,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1119FABC-E957-4B38-B87F-FE3412B9A645}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BD112D-483C-4DC3-AC82-49A1F55493B5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>